--- a/timezone-app/time-keeper-test-cases.xlsx
+++ b/timezone-app/time-keeper-test-cases.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="68">
   <si>
     <t>TESTER</t>
   </si>
@@ -112,6 +112,23 @@
     <t>TC_004</t>
   </si>
   <si>
+    <t>Verify that a user can add more than one timezone to the table using the same label</t>
+  </si>
+  <si>
+    <t>- Navigate to the Time keeper web app URL
+- Add a timezone with a label (e.g. Europe HQ)
+- Add another timezone using the same label but a different location</t>
+  </si>
+  <si>
+    <t>Two records should be displayed on the table with two same label but different location and local time</t>
+  </si>
+  <si>
+    <t>Only one record was displayed on the table. The first label got replaced by the second label on the table</t>
+  </si>
+  <si>
+    <t>TC_005</t>
+  </si>
+  <si>
     <t>Verify that a user can add more than One record with the same timezone</t>
   </si>
   <si>
@@ -120,19 +137,33 @@
 - Add another timezone using the same location but a different label</t>
   </si>
   <si>
-    <t>Two records should be displayed on the table withe two different labels and the same location and local time</t>
-  </si>
-  <si>
-    <t>Only one record was displayed on the table. The first label got replaced by the second label on the table</t>
+    <t>Two records should be displayed on the table with two different labels and the same location and local time</t>
   </si>
   <si>
     <t>Fail</t>
   </si>
   <si>
+    <t>TC_006</t>
+  </si>
+  <si>
+    <t>Verify that a user cannot add a timezone using whitespace as label</t>
+  </si>
+  <si>
+    <t xml:space="preserve">- Navigate to the Time keeper web app URL
+- Add a timezone using whitespace as label (press spacebar on label input field)
+</t>
+  </si>
+  <si>
+    <t>Record should not be added. An error message shuld be displayed</t>
+  </si>
+  <si>
+    <t>Record was added to the tabel and a whitepace was displayed as the label name</t>
+  </si>
+  <si>
     <t>Time Keeper Table</t>
   </si>
   <si>
-    <t>TC_005</t>
+    <t>TC_007</t>
   </si>
   <si>
     <t>Verify that a local timezone record marked as "Local(You)" is automatically created</t>
@@ -145,7 +176,7 @@
     <t>A record marked as "Local(You)" should be displayed showing the current timezone and local time</t>
   </si>
   <si>
-    <t>TC_006</t>
+    <t>TC_008</t>
   </si>
   <si>
     <t>Verify that a user can delete a record from the table</t>
@@ -160,7 +191,7 @@
     <t>Timezone should be deleted successfully</t>
   </si>
   <si>
-    <t>TC_007</t>
+    <t>TC_009</t>
   </si>
   <si>
     <t xml:space="preserve">Verify that a user cannot delete the "Local(You)" record </t>
@@ -177,7 +208,7 @@
     <t>"Local(You)" record is deleted from the page</t>
   </si>
   <si>
-    <t>TC_008</t>
+    <t>TC_010</t>
   </si>
   <si>
     <t>Verify that the table is sorted by the current time</t>
@@ -218,7 +249,7 @@
     <t>Responsive Web app</t>
   </si>
   <si>
-    <t>TC_009</t>
+    <t>TC_011</t>
   </si>
   <si>
     <t>Verify that web app is mobile responsive</t>
@@ -869,8 +900,8 @@
       <c r="F9" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>33</v>
+      <c r="G9" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -892,7 +923,24 @@
       <c r="Y9" s="2"/>
     </row>
     <row r="10">
-      <c r="A10" s="7"/>
+      <c r="B10" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -913,26 +961,23 @@
       <c r="Y10" s="2"/>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="B11" s="3" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>18</v>
+        <v>42</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>19</v>
+      <c r="G11" s="6" t="s">
+        <v>37</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -954,24 +999,7 @@
       <c r="Y11" s="2"/>
     </row>
     <row r="12">
-      <c r="B12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>19</v>
-      </c>
+      <c r="A12" s="7"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -992,23 +1020,26 @@
       <c r="Y12" s="2"/>
     </row>
     <row r="13">
-      <c r="B13" s="3" t="s">
+      <c r="A13" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="B13" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="8" t="s">
+      <c r="E13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="G13" s="6" t="s">
-        <v>33</v>
+      <c r="F13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -1043,10 +1074,10 @@
         <v>51</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>52</v>
+        <v>18</v>
       </c>
-      <c r="G14" s="6" t="s">
-        <v>33</v>
+      <c r="G14" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="H14" s="2"/>
       <c r="I14" s="2"/>
@@ -1068,7 +1099,24 @@
       <c r="Y14" s="2"/>
     </row>
     <row r="15">
-      <c r="A15" s="7"/>
+      <c r="B15" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -1089,26 +1137,23 @@
       <c r="Y15" s="2"/>
     </row>
     <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="B16" s="3" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
@@ -1130,13 +1175,7 @@
       <c r="Y16" s="2"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="A17" s="7"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -1157,13 +1196,27 @@
       <c r="Y17" s="2"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2"/>
-      <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="A18" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="G18" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -27805,12 +27858,66 @@
       <c r="X1004" s="2"/>
       <c r="Y1004" s="2"/>
     </row>
+    <row r="1005">
+      <c r="A1005" s="2"/>
+      <c r="B1005" s="2"/>
+      <c r="C1005" s="2"/>
+      <c r="D1005" s="2"/>
+      <c r="E1005" s="2"/>
+      <c r="F1005" s="2"/>
+      <c r="G1005" s="2"/>
+      <c r="H1005" s="2"/>
+      <c r="I1005" s="2"/>
+      <c r="J1005" s="2"/>
+      <c r="K1005" s="2"/>
+      <c r="L1005" s="2"/>
+      <c r="M1005" s="2"/>
+      <c r="N1005" s="2"/>
+      <c r="O1005" s="2"/>
+      <c r="P1005" s="2"/>
+      <c r="Q1005" s="2"/>
+      <c r="R1005" s="2"/>
+      <c r="S1005" s="2"/>
+      <c r="T1005" s="2"/>
+      <c r="U1005" s="2"/>
+      <c r="V1005" s="2"/>
+      <c r="W1005" s="2"/>
+      <c r="X1005" s="2"/>
+      <c r="Y1005" s="2"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2"/>
+      <c r="B1006" s="2"/>
+      <c r="C1006" s="2"/>
+      <c r="D1006" s="2"/>
+      <c r="E1006" s="2"/>
+      <c r="F1006" s="2"/>
+      <c r="G1006" s="2"/>
+      <c r="H1006" s="2"/>
+      <c r="I1006" s="2"/>
+      <c r="J1006" s="2"/>
+      <c r="K1006" s="2"/>
+      <c r="L1006" s="2"/>
+      <c r="M1006" s="2"/>
+      <c r="N1006" s="2"/>
+      <c r="O1006" s="2"/>
+      <c r="P1006" s="2"/>
+      <c r="Q1006" s="2"/>
+      <c r="R1006" s="2"/>
+      <c r="S1006" s="2"/>
+      <c r="T1006" s="2"/>
+      <c r="U1006" s="2"/>
+      <c r="V1006" s="2"/>
+      <c r="W1006" s="2"/>
+      <c r="X1006" s="2"/>
+      <c r="Y1006" s="2"/>
+    </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="A6:A9"/>
-    <mergeCell ref="A11:A14"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="A13:A16"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="A6:A11"/>
   </mergeCells>
   <drawing r:id="rId1"/>
 </worksheet>
